--- a/medicine/Enfance/Janet_et_Allan_Ahlberg/Janet_et_Allan_Ahlberg.xlsx
+++ b/medicine/Enfance/Janet_et_Allan_Ahlberg/Janet_et_Allan_Ahlberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Janet et Allan Ahlberg sont des auteurs et illustrateurs britanniques de littérature d'enfance et de jeunesse.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Enseignant pendant dix ans, Allan Ahlberg a été poussé par sa femme Janet, graphiste, à écrire un livre pour enfants afin qu’elle puisse en faire les illustrations. Influencés par les bandes dessinées et les dessins animés, les textes et les illustrations fonctionnant ensemble, se complétant.
 Allan Ahlberg a également collaboré avec d’autres illustrateurs créant ainsi la série à succès « Happy families ».
 Depuis la disparition de Janet Ahlberg en 1994, Allan Ahlberg a continué à créer des livres pour les enfants de tous âges.
-En 2023, il est sélectionné pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[1].
+En 2023, il est sélectionné pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Traduits en français
-Prune, pêche, poire, prune illustré par Janet Ahlberg, Gallimard, 1978;
+          <t>Traduits en français</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prune, pêche, poire, prune illustré par Janet Ahlberg, Gallimard, 1978;
 Qui a volé les tartes? (Enfantimages) illustré par Janet Ahlberg et Marie-Raymond farré Gallimard, 1979;
 Bill le cambrioleur illustré par Janet Ahlberg, Centurion jeunesse, 1980;
 Gendarmes et voleur' illustré par Janet Ahlberg, Gallimard, 1980;
@@ -600,9 +619,43 @@
 Le plus brave de tous les ours coauteur Paul Howard, Milan, 2000;
 Ben a un chien! coauteur Raymond Briggs, Gallimard Jeunesse, 2001;
 La saucisse partie coauteurs Bruce Ingman et Catherine Gibert, Gallimard Jeunesse, 2007;
-Drôle de crayon illustré par Bruce Ingman, Gallimard Jeunesse, 2008;
-En langue anglaise
-Funnybones, Greenwillow Books, 1980;
+Drôle de crayon illustré par Bruce Ingman, Gallimard Jeunesse, 2008;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Janet_et_Allan_Ahlberg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Janet_et_Allan_Ahlberg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En langue anglaise</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Funnybones, Greenwillow Books, 1980;
 Master Salt the Sailor's Son, Golden Books, 1982;
 Happy Worm, American Ed, 1985;
 Fee Fi Fo Fum, American Ed, 1985;
@@ -619,39 +672,41 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Janet_et_Allan_Ahlberg</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Janet_et_Allan_Ahlberg</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Janet Ahlberg :
-1980 : (international) « Honour List »[2] de l' IBBY, catégorie Illustration pour Prune, pêche, poire, prune, sur un texte de Allan Ahlberg
+1980 : (international) « Honour List » de l' IBBY, catégorie Illustration pour Prune, pêche, poire, prune, sur un texte de Allan Ahlberg
 Allan et Janet Ahlberg :
-1988 :  (international) « Honour List »[2] de l' IBBY, catégorie Illustration, pour Le gentil facteur ou lettres à des gens célèbres, qu'ils ont également écrit.
+1988 :  (international) « Honour List » de l' IBBY, catégorie Illustration, pour Le gentil facteur ou lettres à des gens célèbres, qu'ils ont également écrit.
 Allan Ahlberg :
-1988 :  (international) « Honour List »[2] de l' IBBY, catégorie Auteur, pour Woof !, sur des illustrations de Fritz Wegner
-2019 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren durant cinq années d'affilée[1]</t>
+1988 :  (international) « Honour List » de l' IBBY, catégorie Auteur, pour Woof !, sur des illustrations de Fritz Wegner
+2019 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren durant cinq années d'affilée</t>
         </is>
       </c>
     </row>
